--- a/data/trans_bre/P16A07-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Dificultad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A07-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.031581510924257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.525659210048846</v>
+        <v>4.525659210048845</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.061435254679242</v>
@@ -649,7 +649,7 @@
         <v>1.946120680944972</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5419744014099115</v>
+        <v>0.5419744014099113</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.664074113144095</v>
+        <v>2.737250000354738</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.073597552830146</v>
+        <v>6.213384365879081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.892980995349877</v>
+        <v>5.001806248951356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.442084749478523</v>
+        <v>1.181228033254813</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4199754571769698</v>
+        <v>0.4112763042562709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.01738964915426</v>
+        <v>1.041107380986439</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.071412518245014</v>
+        <v>1.142835300426795</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1141359126493228</v>
+        <v>0.09164720372149922</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.969304435906091</v>
+        <v>8.149212456819043</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.06063498651234</v>
+        <v>11.30715193231882</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.208232214585436</v>
+        <v>9.091743926693541</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.696188313303296</v>
+        <v>7.804574554270044</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.011361413972171</v>
+        <v>2.154636292889731</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.004271707482186</v>
+        <v>3.209661367195302</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.313454662233226</v>
+        <v>3.362490656334169</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.202693561794857</v>
+        <v>1.186255309045277</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>1.894748582550022</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.585815060016132</v>
+        <v>1.585815060016133</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.128191281191508</v>
+        <v>2.211612155452299</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.222878515761536</v>
+        <v>2.034493861071725</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.070928088320552</v>
+        <v>2.041697811545788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.262018152558087</v>
+        <v>3.473907260614552</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8376628060475946</v>
+        <v>0.9354122472717992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.561589990206144</v>
+        <v>0.4648334508357855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7074939432810727</v>
+        <v>0.7495618609276224</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6330024376311296</v>
+        <v>0.7836205730685057</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.430300533731863</v>
+        <v>5.282961185917724</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.056662422583336</v>
+        <v>5.973271077074288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.448568982990293</v>
+        <v>5.303486215148393</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.004620266772918</v>
+        <v>6.941105639689953</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.829445554959721</v>
+        <v>4.472695013865341</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.076760010442942</v>
+        <v>2.800543276946878</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.16839750865033</v>
+        <v>3.948797343590397</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.868217555579948</v>
+        <v>2.912729703446208</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.889092609076355</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.683267355884384</v>
+        <v>3.683267355884386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>3.379512285672051</v>
@@ -849,7 +849,7 @@
         <v>2.739237772974773</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.667162535095869</v>
+        <v>1.66716253509587</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.223891695027511</v>
+        <v>2.155453105896712</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.727760004070877</v>
+        <v>1.595430792297809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.087388439213566</v>
+        <v>1.92048565279158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.035556630493931</v>
+        <v>2.108962859417919</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.403704027049432</v>
+        <v>1.282366151373361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3951271851985284</v>
+        <v>0.3663656698858532</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8679025547592187</v>
+        <v>0.7711262298836228</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6541279565822934</v>
+        <v>0.6858056290567505</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.086419289324599</v>
+        <v>5.170527143014636</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.808679529899091</v>
+        <v>5.66667842249071</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.112240911921081</v>
+        <v>5.78203555246037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.055999052377894</v>
+        <v>5.136693563718407</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>8.309218622343929</v>
+        <v>8.606588758397132</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.758209537529663</v>
+        <v>2.895757042135405</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6.747824591612207</v>
+        <v>7.346202918043339</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.074387329724943</v>
+        <v>3.172318923602484</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.598035154457231</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.126512053695836</v>
+        <v>3.126512053695834</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9728387342038295</v>
@@ -949,7 +949,7 @@
         <v>3.11391303051919</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.435533302823643</v>
+        <v>1.435533302823642</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5431187689711184</v>
+        <v>-0.258481314597486</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2739252551661154</v>
+        <v>0.3545206728199618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9818408057915541</v>
+        <v>0.985838882444271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.543593824097082</v>
+        <v>1.724612547072321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2647678010495125</v>
+        <v>-0.1933505058705712</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06170099891697872</v>
+        <v>-0.05380228633610676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3487740799389727</v>
+        <v>0.3787646590668778</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.459104604705714</v>
+        <v>0.5466051969591508</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.457386607001064</v>
+        <v>4.757848501257754</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.845514913834426</v>
+        <v>4.963199345099724</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.834050384271903</v>
+        <v>4.771160468320486</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.498635679023002</v>
+        <v>4.69685390403701</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.63782781396326</v>
+        <v>3.876272952286737</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.116375086160237</v>
+        <v>5.267127658292411</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16.69085521361293</v>
+        <v>13.71590600912606</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.042062051636228</v>
+        <v>3.282749759749302</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.35971526944534</v>
+        <v>3.34237251148077</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.135504599192175</v>
+        <v>4.077552921250434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.877065113018677</v>
+        <v>3.731578374261296</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.347557794432839</v>
+        <v>3.342139798879734</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.304815724314174</v>
+        <v>1.277436690052457</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.104341320703866</v>
+        <v>1.074982576929198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.515294537092288</v>
+        <v>1.437108685552112</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.8638274935665329</v>
+        <v>0.8502935068274318</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.26729776511122</v>
+        <v>5.342411825075589</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.319248114497435</v>
+        <v>6.348106349589133</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.815693311066672</v>
+        <v>5.847910380354033</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.14020241977013</v>
+        <v>5.196864583732784</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.989217652146917</v>
+        <v>3.00289514556511</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.284340467257807</v>
+        <v>2.338544851138774</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.214105990090383</v>
+        <v>3.115170882623304</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.779190040371385</v>
+        <v>1.777404507076412</v>
       </c>
     </row>
     <row r="19">
